--- a/TestResults.xlsx
+++ b/TestResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="38">
   <si>
     <t>Test Name</t>
   </si>
@@ -117,6 +117,15 @@
   </si>
   <si>
     <t>2025-09-07 21:19:08</t>
+  </si>
+  <si>
+    <t>2025-09-07 21:53:03</t>
+  </si>
+  <si>
+    <t>2025-09-07 21:53:05</t>
+  </si>
+  <si>
+    <t>2025-09-07 21:53:10</t>
   </si>
 </sst>
 </file>
@@ -161,7 +170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -747,6 +756,62 @@
         <v>34</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C42" t="n" s="0">
+        <v>0.8080000281333923</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C43" t="n" s="0">
+        <v>0.6060000061988831</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C44" t="n" s="0">
+        <v>0.7139999866485596</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C45" t="n" s="0">
+        <v>0.5120000243186951</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/TestResults.xlsx
+++ b/TestResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="42">
   <si>
     <t>Test Name</t>
   </si>
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t>2025-09-07 21:53:10</t>
+  </si>
+  <si>
+    <t>2025-09-08 09:21:06</t>
+  </si>
+  <si>
+    <t>2025-09-08 09:21:08</t>
+  </si>
+  <si>
+    <t>2025-09-08 09:21:30</t>
+  </si>
+  <si>
+    <t>2025-09-08 09:22:04</t>
   </si>
 </sst>
 </file>
@@ -170,7 +182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -812,6 +824,62 @@
         <v>37</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C46" t="n" s="0">
+        <v>0.8080000281333923</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C47" t="n" s="0">
+        <v>0.7139999866485596</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C48" t="n" s="0">
+        <v>0.6060000061988831</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C49" t="n" s="0">
+        <v>0.5120000243186951</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
